--- a/document/database/模板消息模块数据字典.xlsx
+++ b/document/database/模板消息模块数据字典.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frog\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
   <si>
     <t>字段名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,51 +160,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键(uuid)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>template_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模板ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>open_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>clob</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>send_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送状态（1：成功 0：不成功）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -237,12 +196,84 @@
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>varchar2(100)</t>
+  </si>
+  <si>
+    <t>Not null</t>
+  </si>
+  <si>
+    <t>主键(uuid)</t>
+  </si>
+  <si>
+    <t>template_id</t>
+  </si>
+  <si>
+    <t>模板ID</t>
+  </si>
+  <si>
+    <t>ttacct</t>
+  </si>
+  <si>
+    <t>推推账号</t>
+  </si>
+  <si>
+    <t>svcchnl</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>渠道类型 1.微信渠道 2.手机</t>
+  </si>
+  <si>
+    <t>open_id</t>
+  </si>
+  <si>
+    <t>用户主键(设备号)</t>
+  </si>
+  <si>
+    <t>devtype</t>
+  </si>
+  <si>
+    <t>Not nul</t>
+  </si>
+  <si>
+    <t>设备类型 0:无/未识别 1：IOS 2:Android</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>clob</t>
+  </si>
+  <si>
+    <t>消息内容</t>
+  </si>
+  <si>
+    <t>createtime</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>send_status</t>
+  </si>
+  <si>
+    <t>发送状态（1：成功 0：不成功）</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -344,25 +375,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -404,7 +432,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,27 +464,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,24 +498,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -681,14 +673,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="25.875" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -698,12 +690,12 @@
     <col min="6" max="9" width="74.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
@@ -713,7 +705,7 @@
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -733,9 +725,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>11</v>
@@ -749,7 +741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -765,7 +757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -781,7 +773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -797,7 +789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -813,7 +805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
@@ -829,12 +821,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>27</v>
@@ -845,12 +837,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -859,7 +851,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -875,12 +867,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>26</v>
@@ -891,9 +883,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>14</v>
@@ -909,7 +901,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -917,12 +909,12 @@
       <c r="E15" s="15"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="17" t="s">
         <v>35</v>
       </c>
@@ -932,7 +924,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -952,118 +944,153 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="3" t="s">
+      <c r="C20" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="6" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="6">
+      <c r="B23" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="20">
         <v>1</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E28" s="20"/>
+      <c r="F28" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -1071,7 +1098,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1079,7 +1106,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="6"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1087,7 +1114,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="6"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1095,7 +1122,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="9"/>
@@ -1103,7 +1130,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -1111,7 +1138,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1119,7 +1146,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1127,7 +1154,7 @@
       <c r="E36" s="6"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1135,7 +1162,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -1143,7 +1170,7 @@
       <c r="E38" s="6"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -1151,7 +1178,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -1159,7 +1186,7 @@
       <c r="E40" s="6"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="7"/>
@@ -1167,7 +1194,7 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1175,7 +1202,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -1183,7 +1210,7 @@
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -1191,7 +1218,7 @@
       <c r="E46" s="13"/>
       <c r="F46" s="14"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" s="6"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1199,7 +1226,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -1207,7 +1234,7 @@
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -1215,7 +1242,7 @@
       <c r="E49" s="6"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -1223,7 +1250,7 @@
       <c r="E50" s="6"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -1231,7 +1258,7 @@
       <c r="E51" s="6"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -1239,7 +1266,7 @@
       <c r="E52" s="6"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -1247,7 +1274,7 @@
       <c r="E53" s="6"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>

--- a/document/database/模板消息模块数据字典.xlsx
+++ b/document/database/模板消息模块数据字典.xlsx
@@ -215,58 +215,63 @@
     <t>模板ID</t>
   </si>
   <si>
+    <t>推推账号</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>open_id</t>
+  </si>
+  <si>
+    <t>用户主键(设备号)</t>
+  </si>
+  <si>
+    <t>Not nul</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>clob</t>
+  </si>
+  <si>
+    <t>消息内容</t>
+  </si>
+  <si>
+    <t>createtime</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>send_status</t>
+  </si>
+  <si>
+    <t>发送状态（1：成功 0：不成功）</t>
+  </si>
+  <si>
     <t>ttacct</t>
-  </si>
-  <si>
-    <t>推推账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>svcchnl</t>
-  </si>
-  <si>
-    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>渠道类型 1.微信渠道 2.手机</t>
-  </si>
-  <si>
-    <t>open_id</t>
-  </si>
-  <si>
-    <t>用户主键(设备号)</t>
-  </si>
-  <si>
-    <t>devtype</t>
-  </si>
-  <si>
-    <t>Not nul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>设备类型 0:无/未识别 1：IOS 2:Android</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>clob</t>
-  </si>
-  <si>
-    <t>消息内容</t>
-  </si>
-  <si>
-    <t>createtime</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>send_status</t>
-  </si>
-  <si>
-    <t>发送状态（1：成功 0：不成功）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -372,14 +377,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -676,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -696,14 +701,14 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
@@ -915,14 +920,14 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
@@ -945,158 +950,158 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="18" t="s">
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="18" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="22" t="s">
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C24" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="18" t="s">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="21" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="22" t="s">
+      <c r="C25" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="22" t="s">
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="22" t="s">
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="22" t="s">
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="B28" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="18" t="s">
+      <c r="D28" s="19">
+        <v>1</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="20">
-        <v>1</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="5"/>
@@ -1203,12 +1208,12 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="12"/>

--- a/document/database/模板消息模块数据字典.xlsx
+++ b/document/database/模板消息模块数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
   <si>
     <t>字段名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,9 +251,6 @@
     <t>send_status</t>
   </si>
   <si>
-    <t>发送状态（1：成功 0：不成功）</t>
-  </si>
-  <si>
     <t>ttacct</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,6 +268,26 @@
   </si>
   <si>
     <t>设备类型 0:无/未识别 1：IOS 2:Android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msgid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息ID号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送状态（success：成功 failed:user block：送达由于用户拒收  failed: system failed 发送失败）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -972,8 +989,8 @@
       <c r="B21" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>44</v>
+      <c r="C21" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -983,14 +1000,12 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>44</v>
-      </c>
+      <c r="C22" s="21"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="17" t="s">
@@ -999,7 +1014,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>49</v>
@@ -1010,7 +1025,7 @@
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1018,7 +1033,7 @@
         <v>50</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>44</v>
@@ -1031,7 +1046,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>49</v>
@@ -1042,7 +1057,7 @@
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1078,46 +1093,52 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="19">
+      <c r="B29" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="19">
         <v>1</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="17" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="6"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="3"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="6"/>
@@ -1128,20 +1149,20 @@
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="9"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="9"/>
@@ -1149,7 +1170,7 @@
       <c r="C35" s="9"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="3"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="9"/>
@@ -1192,52 +1213,52 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="14"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="6"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="3"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="14"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="9"/>
@@ -1245,7 +1266,7 @@
       <c r="C49" s="9"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="F49" s="3"/>
+      <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="9"/>
@@ -1287,11 +1308,19 @@
       <c r="E54" s="6"/>
       <c r="F54" s="3"/>
     </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A46:F46"/>
     <mergeCell ref="A18:F18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/document/database/模板消息模块数据字典.xlsx
+++ b/document/database/模板消息模块数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
   <si>
     <t>字段名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,10 +153,6 @@
   </si>
   <si>
     <t>模板状态 1：正常 0：删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>primary key：id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -197,18 +193,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>varchar2(100)</t>
   </si>
   <si>
     <t>Not null</t>
   </si>
   <si>
-    <t>主键(uuid)</t>
-  </si>
-  <si>
     <t>template_id</t>
   </si>
   <si>
@@ -271,23 +261,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>varchar2(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息ID号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送状态（success：成功 failed:user block：送达由于用户拒收  failed: system failed 发送失败）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>msgid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar2(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息ID号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送状态（success：成功 failed:user block：送达由于用户拒收  failed: system failed 发送失败）</t>
+    <t>primary key：msgid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -696,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="A18" sqref="A18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -714,7 +708,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -749,7 +743,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>11</v>
@@ -848,7 +842,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>27</v>
@@ -864,7 +858,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -894,7 +888,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>26</v>
@@ -907,7 +901,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>14</v>
@@ -933,12 +927,12 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="22" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -967,178 +961,170 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="19" t="s">
+      <c r="A20" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="17" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="21" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>67</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C21" s="21"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="21"/>
+        <v>46</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>42</v>
+      </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="17" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="21" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="17" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="21" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="17" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="21" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="17" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
+      <c r="C26" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="19" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
       <c r="F27" s="17" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="19">
+        <v>1</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="17" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="19">
-        <v>1</v>
-      </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="17" t="s">
-        <v>69</v>
-      </c>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="6"/>
@@ -1149,20 +1135,20 @@
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="6"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="3"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="9"/>
@@ -1170,7 +1156,7 @@
       <c r="C35" s="9"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="9"/>
@@ -1213,52 +1199,52 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="14"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="14"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="6"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="3"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="9"/>
@@ -1266,7 +1252,7 @@
       <c r="C49" s="9"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
+      <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="9"/>
@@ -1308,19 +1294,11 @@
       <c r="E54" s="6"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A45:F45"/>
     <mergeCell ref="A18:F18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/document/database/模板消息模块数据字典.xlsx
+++ b/document/database/模板消息模块数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
   <si>
     <t>字段名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,10 +85,6 @@
   </si>
   <si>
     <t>模板所属一级行业名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(255)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -282,6 +278,20 @@
   </si>
   <si>
     <t>primary key：msgid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountid</t>
+  </si>
+  <si>
+    <t>varchar2(255)</t>
+  </si>
+  <si>
+    <t>varchar2(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前登陆用户ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -690,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:F18"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -708,7 +718,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -743,7 +753,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>11</v>
@@ -807,26 +817,26 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>6</v>
@@ -834,297 +844,305 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="4">
+    <row r="16" spans="1:6">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="17" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="21" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="21"/>
+        <v>40</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>62</v>
+      </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C22" s="21"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="17" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="21" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="17" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="21" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="17" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="21" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="17" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
+      <c r="A26" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
       <c r="F26" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="19" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
       <c r="F27" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="19">
+        <v>1</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="19">
-        <v>1</v>
-      </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-    </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="6"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="3"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="6"/>
@@ -1135,20 +1153,20 @@
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="9"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="9"/>
@@ -1156,7 +1174,7 @@
       <c r="C35" s="9"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="3"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="9"/>
@@ -1199,52 +1217,52 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="14"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="6"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="3"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="14"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="9"/>
@@ -1252,7 +1270,7 @@
       <c r="C49" s="9"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="F49" s="3"/>
+      <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="9"/>
@@ -1294,12 +1312,20 @@
       <c r="E54" s="6"/>
       <c r="F54" s="3"/>
     </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A19:F19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/database/模板消息模块数据字典.xlsx
+++ b/document/database/模板消息模块数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
   <si>
     <t>字段名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,6 +292,26 @@
   </si>
   <si>
     <t>当前登陆用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信公众号ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1037,7 +1057,7 @@
         <v>46</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>41</v>
@@ -1088,7 +1108,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -1098,10 +1118,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="19" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>41</v>
@@ -1109,48 +1129,56 @@
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
       <c r="F28" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="21" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B30" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="19">
+      <c r="C30" s="20"/>
+      <c r="D30" s="19">
         <v>1</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="17" t="s">
+      <c r="E30" s="19"/>
+      <c r="F30" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-    </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="6"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="3"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="6"/>
@@ -1161,20 +1189,20 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="9"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="9"/>
@@ -1182,7 +1210,7 @@
       <c r="C36" s="9"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="3"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="9"/>
@@ -1225,52 +1253,52 @@
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="14"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="6"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="3"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="14"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="9"/>
@@ -1278,7 +1306,7 @@
       <c r="C50" s="9"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="F50" s="3"/>
+      <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="9"/>
@@ -1320,11 +1348,19 @@
       <c r="E55" s="6"/>
       <c r="F55" s="3"/>
     </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A47:F47"/>
     <mergeCell ref="A19:F19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
